--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2662930.209893775</v>
+        <v>2658625.904924332</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445190.96012776</v>
+        <v>12445190.96012775</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9002540.387370095</v>
+        <v>9002540.387370093</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>244.562873680735</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.5639921989987</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.5639921989987</v>
+        <v>263.5639921989986</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1482828471418</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.5639921989986</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.5639921989986</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>225.2711185871666</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0234885084581</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>37.74438217956494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.20026557072374</v>
+        <v>18.2002655707238</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>71.83840457982537</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8545380905306</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704491</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>180.8716526681872</v>
       </c>
       <c r="V4" t="n">
-        <v>135.1488598038063</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>263.5639921989987</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015062</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>7.155295256393378</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -983,16 +983,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>76.60827322822647</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1056,13 +1056,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>83.43224246993546</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.4461456937707</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295398</v>
+        <v>208.2474868886324</v>
       </c>
       <c r="H8" t="n">
-        <v>285.3866942180167</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,10 +1305,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>131.6064572282747</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>31.40395494258334</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695349</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.98177228777837</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>105.9742079424025</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1897,7 +1897,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>81.54417886827336</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771007</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881302</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2250,7 +2250,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376557</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>177.9413471369465</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2371,10 +2371,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>135.3135037226517</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.5078095423601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>96.02642072444083</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2845,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>125.8152577453184</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>7.408064079030886</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695533</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.40964990483307</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>94.05951414665512</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>244.8868067888989</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>75.92936329650534</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>105.7906564314211</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800.5708346069629</v>
+        <v>294.2568748715865</v>
       </c>
       <c r="C2" t="n">
-        <v>553.5376288688467</v>
+        <v>294.2568748715865</v>
       </c>
       <c r="D2" t="n">
-        <v>553.5376288688467</v>
+        <v>294.2568748715865</v>
       </c>
       <c r="E2" t="n">
-        <v>553.5376288688467</v>
+        <v>294.2568748715865</v>
       </c>
       <c r="F2" t="n">
-        <v>287.3113741223833</v>
+        <v>287.3113741223831</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0851193759199</v>
+        <v>21.08511937591988</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0851193759199</v>
+        <v>21.08511937591988</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0851193759199</v>
+        <v>21.08511937591988</v>
       </c>
       <c r="J2" t="n">
-        <v>50.19026732551289</v>
+        <v>49.1499466070119</v>
       </c>
       <c r="K2" t="n">
-        <v>142.9906865349447</v>
+        <v>141.9503658164435</v>
       </c>
       <c r="L2" t="n">
-        <v>295.019574396578</v>
+        <v>293.9792536780766</v>
       </c>
       <c r="M2" t="n">
-        <v>495.8504424173886</v>
+        <v>494.810121698887</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5447722238172</v>
+        <v>703.5044515053154</v>
       </c>
       <c r="O2" t="n">
-        <v>888.273648738114</v>
+        <v>887.233328019612</v>
       </c>
       <c r="P2" t="n">
-        <v>1010.580993266323</v>
+        <v>1009.540672547821</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795994</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795994</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795994</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795994</v>
       </c>
       <c r="U2" t="n">
-        <v>800.5708346069629</v>
+        <v>1054.255968795994</v>
       </c>
       <c r="V2" t="n">
-        <v>800.5708346069629</v>
+        <v>788.0297140495311</v>
       </c>
       <c r="W2" t="n">
-        <v>800.5708346069629</v>
+        <v>788.0297140495311</v>
       </c>
       <c r="X2" t="n">
-        <v>800.5708346069629</v>
+        <v>521.8034593030679</v>
       </c>
       <c r="Y2" t="n">
-        <v>800.5708346069629</v>
+        <v>294.2568748715865</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>196.6082210809936</v>
+        <v>501.3101616356174</v>
       </c>
       <c r="C3" t="n">
-        <v>196.6082210809936</v>
+        <v>326.8571323544904</v>
       </c>
       <c r="D3" t="n">
-        <v>196.6082210809936</v>
+        <v>326.8571323544904</v>
       </c>
       <c r="E3" t="n">
-        <v>196.6082210809936</v>
+        <v>167.6196773490349</v>
       </c>
       <c r="F3" t="n">
-        <v>196.6082210809936</v>
+        <v>21.08511937591988</v>
       </c>
       <c r="G3" t="n">
-        <v>59.21075794113702</v>
+        <v>21.08511937591988</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0851193759199</v>
+        <v>21.08511937591988</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0851193759199</v>
+        <v>21.08511937591988</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0851193759199</v>
+        <v>21.08511937591988</v>
       </c>
       <c r="K3" t="n">
-        <v>95.64621773957516</v>
+        <v>95.64621773957504</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2253570557082</v>
+        <v>242.2253570557079</v>
       </c>
       <c r="M3" t="n">
-        <v>438.325856915326</v>
+        <v>432.6331671185513</v>
       </c>
       <c r="N3" t="n">
-        <v>648.1818400501588</v>
+        <v>642.489150253384</v>
       </c>
       <c r="O3" t="n">
-        <v>909.1101923271676</v>
+        <v>812.2465809289098</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.022430280454</v>
+        <v>929.1588188821961</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795994</v>
       </c>
       <c r="R3" t="n">
         <v>1035.8718621589</v>
       </c>
       <c r="S3" t="n">
-        <v>1035.8718621589</v>
+        <v>963.307817128773</v>
       </c>
       <c r="T3" t="n">
-        <v>1035.8718621589</v>
+        <v>963.307817128773</v>
       </c>
       <c r="U3" t="n">
-        <v>807.7359650977583</v>
+        <v>963.307817128773</v>
       </c>
       <c r="V3" t="n">
-        <v>572.5838568660156</v>
+        <v>963.307817128773</v>
       </c>
       <c r="W3" t="n">
-        <v>572.5838568660156</v>
+        <v>709.0704604005714</v>
       </c>
       <c r="X3" t="n">
-        <v>572.5838568660156</v>
+        <v>709.0704604005714</v>
       </c>
       <c r="Y3" t="n">
-        <v>364.8235581010617</v>
+        <v>501.3101616356174</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.0851193759199</v>
+        <v>488.0510352985556</v>
       </c>
       <c r="C4" t="n">
-        <v>21.0851193759199</v>
+        <v>319.1148523706487</v>
       </c>
       <c r="D4" t="n">
-        <v>21.0851193759199</v>
+        <v>168.998212958313</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0851193759199</v>
+        <v>21.08511937591988</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0851193759199</v>
+        <v>21.08511937591988</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0851193759199</v>
+        <v>21.08511937591988</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0851193759199</v>
+        <v>21.08511937591988</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0851193759199</v>
+        <v>21.08511937591988</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0851193759199</v>
+        <v>21.08511937591988</v>
       </c>
       <c r="K4" t="n">
-        <v>126.3272391953618</v>
+        <v>126.3272391953616</v>
       </c>
       <c r="L4" t="n">
-        <v>316.5273535735312</v>
+        <v>316.527353573531</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559565</v>
+        <v>527.4558292559561</v>
       </c>
       <c r="N4" t="n">
-        <v>738.803513656831</v>
+        <v>738.8035136568304</v>
       </c>
       <c r="O4" t="n">
-        <v>918.0010123005268</v>
+        <v>918.0010123005262</v>
       </c>
       <c r="P4" t="n">
         <v>1047.814747485829</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.255968795995</v>
+        <v>1054.255968795994</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.255968795995</v>
+        <v>925.4341625632173</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.255968795995</v>
+        <v>925.4341625632173</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.255968795995</v>
+        <v>925.4341625632173</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.255968795995</v>
+        <v>742.7355235044424</v>
       </c>
       <c r="V4" t="n">
-        <v>917.7419689941704</v>
+        <v>488.0510352985556</v>
       </c>
       <c r="W4" t="n">
-        <v>651.515714247707</v>
+        <v>488.0510352985556</v>
       </c>
       <c r="X4" t="n">
-        <v>423.5261633496897</v>
+        <v>488.0510352985556</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.7335842061596</v>
+        <v>488.0510352985556</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>566.8162363079209</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>300.438579740743</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>300.438579740743</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E5" t="n">
-        <v>300.438579740743</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F5" t="n">
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
         <v>495.5981834030603</v>
@@ -4594,25 +4594,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1047.627949039971</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>833.193892875099</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>833.193892875099</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>833.193892875099</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>833.193892875099</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>566.8162363079209</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y5" t="n">
-        <v>566.8162363079209</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>582.3653976835424</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>407.9123684024154</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>258.9779587411641</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>258.9779587411641</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>258.9779587411641</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>694.2029851278863</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4673,25 +4673,25 @@
         <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>887.8833378166546</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>659.7474918534681</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>582.3653976835424</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>582.3653976835424</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>582.3653976835424</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>582.3653976835424</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.0971104001205</v>
+        <v>424.4249251342374</v>
       </c>
       <c r="C7" t="n">
-        <v>21.0971104001205</v>
+        <v>255.4887422063304</v>
       </c>
       <c r="D7" t="n">
-        <v>21.0971104001205</v>
+        <v>105.3721027939947</v>
       </c>
       <c r="E7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
         <v>316.708372655101</v>
@@ -4740,7 +4740,7 @@
         <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4752,25 +4752,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>848.0684854165361</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>848.0684854165361</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>581.690828849358</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>581.690828849358</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>581.690828849358</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>353.7012779513407</v>
+        <v>826.8659691080072</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.7455752303602</v>
+        <v>606.0733899644771</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1179.250440354288</v>
+        <v>1785.600156360221</v>
       </c>
       <c r="C8" t="n">
-        <v>810.2879234138759</v>
+        <v>1416.63763941981</v>
       </c>
       <c r="D8" t="n">
-        <v>810.2879234138759</v>
+        <v>1058.371940813059</v>
       </c>
       <c r="E8" t="n">
-        <v>424.4996708156316</v>
+        <v>672.5836882148151</v>
       </c>
       <c r="F8" t="n">
-        <v>417.5541700664282</v>
+        <v>261.5977834252075</v>
       </c>
       <c r="G8" t="n">
-        <v>405.8898238311211</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321143</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816104</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872951</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923567</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230824</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4837,19 +4837,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664335</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1955.989612394221</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="X8" t="n">
-        <v>1955.989612394221</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>1565.850280418409</v>
+        <v>2172.199996424343</v>
       </c>
     </row>
     <row r="9">
@@ -4874,37 +4874,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057884</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370166</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143434</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458163</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105038</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701984</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878147</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>648.7476305124098</v>
+        <v>685.1760210978775</v>
       </c>
       <c r="C10" t="n">
-        <v>479.811447584503</v>
+        <v>516.2398381699707</v>
       </c>
       <c r="D10" t="n">
-        <v>479.811447584503</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="E10" t="n">
-        <v>479.811447584503</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F10" t="n">
-        <v>332.9215000865926</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.862713590084</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="V10" t="n">
-        <v>1279.178225384197</v>
+        <v>1347.327782578335</v>
       </c>
       <c r="W10" t="n">
-        <v>1279.178225384197</v>
+        <v>1315.606615969665</v>
       </c>
       <c r="X10" t="n">
-        <v>1051.18867448618</v>
+        <v>1087.617065071647</v>
       </c>
       <c r="Y10" t="n">
-        <v>830.3960953426496</v>
+        <v>866.8244859281173</v>
       </c>
     </row>
     <row r="11">
@@ -5038,7 +5038,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5050,16 +5050,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,16 +5068,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5132,10 +5132,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.8888553856862</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1211.329899359456</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>990.5373202159259</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1366.386875345992</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5475,13 +5475,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5515,25 +5515,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>175.8744207939072</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5761,28 +5761,28 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.665004989558</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2102.574735228845</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1977.461080510508</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1688.043910473548</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>1460.05435957553</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192684</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.61155333239</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3023.484406741616</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C25" t="n">
-        <v>3023.484406741616</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3205.132871571856</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,10 +6238,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,16 +6253,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6271,7 +6271,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>2231.588527385791</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2565.513299557012</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>3060.83890577277</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3658.217393399322</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>4285.815356953929</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>4285.815356953929</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>652.8121879835377</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E28" t="n">
-        <v>504.8990944011446</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F28" t="n">
-        <v>358.0091469032342</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G28" t="n">
-        <v>190.8130476181141</v>
+        <v>199.7675539570408</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6417,19 +6417,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6475,13 +6475,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6493,22 +6493,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6542,22 +6542,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>763.7541388327679</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>594.817955904861</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>444.7013164925253</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6642,31 +6642,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603205</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947403</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741516</v>
       </c>
       <c r="W31" t="n">
-        <v>1426.218472639697</v>
+        <v>1394.184733704555</v>
       </c>
       <c r="X31" t="n">
-        <v>1198.22892174168</v>
+        <v>1166.195182806538</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.22892174168</v>
+        <v>945.4026036630077</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6691,28 +6691,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6733,16 +6733,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6782,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1618.570148794804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1390.580597896787</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1169.788018753257</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6925,13 +6925,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6943,43 +6943,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273908</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>95.58405025273908</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>95.58405025273908</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1320.560501433898</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1872.470231673185</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2296.093381168253</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2529.355041543135</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3295.835008173205</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3126.898825245298</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2976.782185832963</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2828.869092250569</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2681.979144752659</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2514.783045467539</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866306</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.92275029663</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822169</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998109</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729144</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.430181389152</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098137</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671696</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398595</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398595</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.9783180535</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076441</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420639</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.617138214752</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3744.617138214752</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3516.627587316735</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3295.835008173205</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,28 +7156,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7253,22 +7253,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7365,19 +7365,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1730.100669612631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1475.416181406744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1185.999011369783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2381.235169913446</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>2978.613657539998</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>3606.211621094605</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>4158.121351333892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4581.74450082896</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>709.4207169875</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1057.613315601761</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>888.6771326738537</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>738.560493261518</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1977.461080510508</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.043910473548</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.05435957553</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.261780432</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.050829008586735</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.050829008587648</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518601</v>
+        <v>60.60994937518609</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789362012</v>
+        <v>2.123866789362083</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8066,19 +8066,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5.750191713913239</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>92.09184000149776</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.84203171541152</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544048</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>45.78351343583194</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780566</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>265.0304328515147</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.2650488108495</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>180.5487903941885</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>107.2784330767828</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>144.1654765207638</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>40.6433062151483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>13.30196929556061</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.07684380973464</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24606,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>44.26829212178306</v>
+        <v>35.40333084624567</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>20.61870490125075</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>279.1149342575601</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.4223302771042</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>46.23519869956877</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>41.29766760034522</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>72.68610972170701</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>40.6433062151481</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>790760.8697117324</v>
+        <v>790760.8697117325</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>794439.3219525021</v>
+        <v>794439.3219525022</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856538</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856539</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856538</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>774108.5972856539</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914271</v>
+        <v>656833.415891427</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="E2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="G2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="F2" t="n">
-        <v>645717.2797520048</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>645717.279752005</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>645717.2797520054</v>
+      </c>
+      <c r="J2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="I2" t="n">
-        <v>645717.2797520051</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="M2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="N2" t="n">
         <v>645717.2797520047</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="L2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="M2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="N2" t="n">
-        <v>645717.2797520048</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520049</v>
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163148</v>
+        <v>679693.2761163143</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389938824</v>
+        <v>373.9475389941305</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059454</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>2.493968250307481e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>68959.9371749147</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395539986</v>
+        <v>38.57632395585818</v>
       </c>
       <c r="L3" t="n">
         <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>246846.0156077608</v>
       </c>
       <c r="C4" t="n">
-        <v>246753.8673982313</v>
+        <v>246753.8673982314</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618635</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26435,22 +26435,22 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732035</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732016</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426732027</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.31242673202</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63030.89693360384</v>
+        <v>63030.89693360383</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-332736.7727662523</v>
+        <v>-332736.772766252</v>
       </c>
       <c r="C6" t="n">
-        <v>346657.7977499351</v>
+        <v>346657.797749935</v>
       </c>
       <c r="D6" t="n">
-        <v>38449.27938377278</v>
+        <v>38449.27938377534</v>
       </c>
       <c r="E6" t="n">
-        <v>28991.99587682217</v>
+        <v>28644.61662246291</v>
       </c>
       <c r="F6" t="n">
-        <v>536477.4375013658</v>
+        <v>536130.0582470089</v>
       </c>
       <c r="G6" t="n">
-        <v>536477.437501366</v>
+        <v>536130.0582470092</v>
       </c>
       <c r="H6" t="n">
-        <v>536477.4375013661</v>
+        <v>536130.0582470088</v>
       </c>
       <c r="I6" t="n">
-        <v>536477.4375013661</v>
+        <v>536130.0582470093</v>
       </c>
       <c r="J6" t="n">
-        <v>467517.500326451</v>
+        <v>467170.1210720942</v>
       </c>
       <c r="K6" t="n">
-        <v>536438.8611774106</v>
+        <v>536091.4819230532</v>
       </c>
       <c r="L6" t="n">
-        <v>441094.7913637963</v>
+        <v>440747.4121094392</v>
       </c>
       <c r="M6" t="n">
-        <v>403870.143772439</v>
+        <v>403522.7645180821</v>
       </c>
       <c r="N6" t="n">
-        <v>536477.4375013659</v>
+        <v>536130.0582470087</v>
       </c>
       <c r="O6" t="n">
-        <v>536477.4375013659</v>
+        <v>536130.0582470089</v>
       </c>
       <c r="P6" t="n">
-        <v>536477.4375013659</v>
+        <v>536130.0582470089</v>
       </c>
     </row>
   </sheetData>
@@ -26703,19 +26703,19 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726936</v>
+        <v>613.6975324726933</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989987</v>
+        <v>263.5639921989986</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,22 +26916,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.117460312884351e-14</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726936</v>
+        <v>613.6975324726933</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967847265</v>
+        <v>0.3574812967849539</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480632</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.5639921989987</v>
+        <v>263.5639921989986</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025074578</v>
+        <v>0.1498878025075847</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989983</v>
+        <v>263.5639921989981</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025061385</v>
+        <v>0.1498878025079193</v>
       </c>
       <c r="L4" t="n">
         <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27156,19 +27156,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.36886840263309e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989987</v>
+        <v>263.5639921989986</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025074578</v>
+        <v>0.1498878025075847</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985327</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>120.7100180902725</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.3120535427127</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.2716195574521</v>
+        <v>149.2716195574523</v>
       </c>
       <c r="H2" t="n">
-        <v>314.2083504396426</v>
+        <v>314.2083504396427</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3620237587334</v>
+        <v>115.3620237587335</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602292</v>
+        <v>152.8004413602293</v>
       </c>
       <c r="T2" t="n">
         <v>212.2960065554913</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1482828471418</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.18826627113634</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.1671084794705</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>160.966820068887</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>61.74236425971575</v>
+        <v>99.48674643928069</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225804</v>
+        <v>43.94827785225807</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1642178017448</v>
+        <v>75.32581322191949</v>
       </c>
       <c r="T3" t="n">
         <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>122.1699595597227</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404757</v>
+        <v>15.11777503404761</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704491</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7303985328714</v>
@@ -27593,19 +27593,19 @@
         <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586656647723</v>
+        <v>105.3870129965851</v>
       </c>
       <c r="V4" t="n">
-        <v>116.9887835200217</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.95900613759227</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.1140765027779</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402052</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>145.6123979428289</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27703,19 +27703,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
         <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>156.1923139211988</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27776,13 +27776,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>63.00172017663371</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>22.54475050117128</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.13850765832413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>203.3002158843216</v>
       </c>
       <c r="H8" t="n">
-        <v>15.63185834438855</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>34.70014281652945</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>255.1190433940077</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5.844418180573881e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29714,7 +29714,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>3.796617681797508e-12</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684193</v>
+        <v>2.467125758684192</v>
       </c>
       <c r="H2" t="n">
-        <v>25.2664516761245</v>
+        <v>25.26645167612449</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167247</v>
+        <v>95.11386581167241</v>
       </c>
       <c r="J2" t="n">
-        <v>209.3942148611228</v>
+        <v>209.3942148611227</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262248</v>
+        <v>313.8276482262246</v>
       </c>
       <c r="L2" t="n">
-        <v>389.3309481635562</v>
+        <v>389.330948163556</v>
       </c>
       <c r="M2" t="n">
-        <v>433.2056958745562</v>
+        <v>433.205695874556</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364177</v>
+        <v>440.2154169364175</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351735017</v>
+        <v>415.6829351735015</v>
       </c>
       <c r="P2" t="n">
-        <v>354.7757680059857</v>
+        <v>354.7757680059855</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731079</v>
+        <v>266.4218267731077</v>
       </c>
       <c r="R2" t="n">
-        <v>154.9755884389461</v>
+        <v>154.975588438946</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601612</v>
+        <v>56.21962822601609</v>
       </c>
       <c r="T2" t="n">
         <v>10.79984300864006</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947354</v>
+        <v>0.1973700606947353</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,46 +31123,46 @@
         <v>1.320028654752586</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721577</v>
+        <v>12.74869779721576</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915703</v>
+        <v>45.44835499915701</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7137598773047</v>
+        <v>124.7137598773046</v>
       </c>
       <c r="K3" t="n">
-        <v>213.155679745728</v>
+        <v>213.1556797457278</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628368</v>
+        <v>286.6141164628366</v>
       </c>
       <c r="M3" t="n">
-        <v>334.465155197618</v>
+        <v>334.4651551976178</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235685</v>
+        <v>343.3174526235683</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419454</v>
+        <v>314.0683966419452</v>
       </c>
       <c r="P3" t="n">
-        <v>252.0675770641145</v>
+        <v>252.0675770641144</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5004998592951</v>
+        <v>168.500499859295</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191939</v>
+        <v>81.95756858191933</v>
       </c>
       <c r="S3" t="n">
-        <v>24.51895330209298</v>
+        <v>24.51895330209297</v>
       </c>
       <c r="T3" t="n">
-        <v>5.320641814550993</v>
+        <v>5.32064181455099</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424913</v>
+        <v>0.08684399044424909</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508136</v>
+        <v>1.106667681508135</v>
       </c>
       <c r="H4" t="n">
-        <v>9.83928175013598</v>
+        <v>9.839281750135974</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753559</v>
+        <v>33.28051536753557</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262521</v>
+        <v>78.24140508262516</v>
       </c>
       <c r="K4" t="n">
-        <v>128.5746633606725</v>
+        <v>128.5746633606724</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023944005</v>
+        <v>164.5313023944004</v>
       </c>
       <c r="M4" t="n">
-        <v>173.4751893840435</v>
+        <v>173.4751893840434</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166042</v>
+        <v>169.3503371166041</v>
       </c>
       <c r="O4" t="n">
-        <v>156.4224464735319</v>
+        <v>156.4224464735318</v>
       </c>
       <c r="P4" t="n">
-        <v>133.8464257707658</v>
+        <v>133.8464257707657</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337674</v>
+        <v>92.66832740337668</v>
       </c>
       <c r="R4" t="n">
-        <v>49.75980320672036</v>
+        <v>49.75980320672033</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28619950410087</v>
+        <v>19.28619950410086</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625671</v>
+        <v>4.728489184625668</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06036369171862567</v>
+        <v>0.06036369171862564</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>606.5820696732821</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32080,25 +32080,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>539.5330155967683</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32314,10 +32314,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32329,13 +32329,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32551,7 +32551,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>353.3934907042774</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33025,7 +33025,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33034,16 +33034,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>543.0832917018702</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33262,10 +33262,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>526.2989357561996</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>510.682889626564</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33520,10 +33520,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33733,34 +33733,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>169.6252075171357</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33973,16 +33973,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>506.5665344352332</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33991,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34213,13 +34213,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.1625787491741</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34374,7 +34374,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,10 +34456,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N45" t="n">
-        <v>228.3420541567482</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34468,7 +34468,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.39913934302323</v>
+        <v>28.34831033443638</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124422</v>
+        <v>93.73779718124405</v>
       </c>
       <c r="L2" t="n">
-        <v>153.564533193569</v>
+        <v>153.5645331935688</v>
       </c>
       <c r="M2" t="n">
-        <v>202.8594626472835</v>
+        <v>202.8594626472833</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398268</v>
+        <v>210.8023533398266</v>
       </c>
       <c r="O2" t="n">
-        <v>185.584723751815</v>
+        <v>185.5847237518148</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507162</v>
+        <v>123.5427722507159</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.11613689865843</v>
+        <v>45.1669659072459</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136896</v>
+        <v>75.31424077136884</v>
       </c>
       <c r="L3" t="n">
-        <v>148.0597366829626</v>
+        <v>148.0597366829625</v>
       </c>
       <c r="M3" t="n">
-        <v>198.0813129895129</v>
+        <v>192.3311212755995</v>
       </c>
       <c r="N3" t="n">
-        <v>211.9757405402352</v>
+        <v>211.975740540235</v>
       </c>
       <c r="O3" t="n">
-        <v>263.5639921989987</v>
+        <v>171.4721521975008</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497843</v>
+        <v>118.0931696497841</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.51872577327356</v>
+        <v>126.360757488685</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3051715347897</v>
+        <v>106.3051715347896</v>
       </c>
       <c r="L4" t="n">
-        <v>192.1213276547167</v>
+        <v>192.1213276547166</v>
       </c>
       <c r="M4" t="n">
-        <v>213.0590663458841</v>
+        <v>213.059066345884</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958328</v>
+        <v>213.4825094958327</v>
       </c>
       <c r="O4" t="n">
         <v>181.0075743875715</v>
       </c>
       <c r="P4" t="n">
-        <v>131.1249850356593</v>
+        <v>131.1249850356592</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151682351</v>
+        <v>6.506284151682294</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015062</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>217.4386117456601</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313267</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215422</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>514.7099619750469</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667043</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977125</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>463.9858252288377</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35728,25 +35728,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>405.558608182438</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35977,13 +35977,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902961</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36141,7 +36141,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>219.4190832899471</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
-        <v>510.7887951929326</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36682,16 +36682,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>409.1088842875399</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>394.9572236728663</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999021</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37150,16 +37150,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5488557045456</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.94570355317173</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37621,16 +37621,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>364.4325005132149</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37639,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,13 +37861,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,10 +38104,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N45" t="n">
-        <v>97.00034207341486</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_12_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2658625.904924332</v>
+        <v>2660386.435227118</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>219.311552572427</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,67 +667,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.5639921989986</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>263.5639921989986</v>
       </c>
       <c r="G2" t="n">
+        <v>12.83561175645086</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>263.5639921989986</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>263.5639921989986</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>263.5639921989986</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>225.2711185871666</v>
       </c>
     </row>
     <row r="3">
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0234885084581</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.48674643928069</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.2002655707238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>71.83840457982537</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8440868802706</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>105.7980708950427</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5335881704491</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>180.8716526681872</v>
+        <v>263.5639921989986</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>121.3060309523245</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>19.98946990210323</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>10.18456372565635</v>
+        <v>28.33708868093411</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>83.43224246993546</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>2.214688090590209</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>208.2474868886324</v>
+        <v>142.5375742161623</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>197.4147107719976</v>
       </c>
       <c r="W10" t="n">
-        <v>31.40395494258334</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695349</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>27.02919805176109</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>191.3928535690711</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D19" t="n">
-        <v>41.33703994142957</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.272891771007</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2134,10 +2134,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>31.26260713376557</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>135.3135037226517</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2608,10 +2608,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,22 +2715,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>125.8152577453184</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560526</v>
       </c>
     </row>
     <row r="39">
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>32.47207866589218</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>104.8913819999782</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4033,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294.2568748715865</v>
+        <v>566.5028932693019</v>
       </c>
       <c r="C2" t="n">
-        <v>294.2568748715865</v>
+        <v>566.5028932693019</v>
       </c>
       <c r="D2" t="n">
-        <v>294.2568748715865</v>
+        <v>566.5028932693019</v>
       </c>
       <c r="E2" t="n">
-        <v>294.2568748715865</v>
+        <v>300.2766385228386</v>
       </c>
       <c r="F2" t="n">
-        <v>287.3113741223831</v>
+        <v>34.05038377637531</v>
       </c>
       <c r="G2" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591989</v>
       </c>
       <c r="H2" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591989</v>
       </c>
       <c r="I2" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591989</v>
       </c>
       <c r="J2" t="n">
-        <v>49.1499466070119</v>
+        <v>50.19026732551346</v>
       </c>
       <c r="K2" t="n">
-        <v>141.9503658164435</v>
+        <v>142.9906865349451</v>
       </c>
       <c r="L2" t="n">
-        <v>293.9792536780766</v>
+        <v>295.0195743965783</v>
       </c>
       <c r="M2" t="n">
-        <v>494.810121698887</v>
+        <v>495.8504424173888</v>
       </c>
       <c r="N2" t="n">
-        <v>703.5044515053154</v>
+        <v>704.5447722238172</v>
       </c>
       <c r="O2" t="n">
-        <v>887.233328019612</v>
+        <v>888.2736487381139</v>
       </c>
       <c r="P2" t="n">
-        <v>1009.540672547821</v>
+        <v>1010.580993266323</v>
       </c>
       <c r="Q2" t="n">
         <v>1054.255968795994</v>
@@ -4366,16 +4366,16 @@
         <v>1054.255968795994</v>
       </c>
       <c r="V2" t="n">
-        <v>788.0297140495311</v>
+        <v>1054.255968795994</v>
       </c>
       <c r="W2" t="n">
-        <v>788.0297140495311</v>
+        <v>1054.255968795994</v>
       </c>
       <c r="X2" t="n">
-        <v>521.8034593030679</v>
+        <v>1054.255968795994</v>
       </c>
       <c r="Y2" t="n">
-        <v>294.2568748715865</v>
+        <v>788.0297140495312</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>501.3101616356174</v>
+        <v>582.3616845281352</v>
       </c>
       <c r="C3" t="n">
-        <v>326.8571323544904</v>
+        <v>407.9086552470083</v>
       </c>
       <c r="D3" t="n">
-        <v>326.8571323544904</v>
+        <v>258.974245585757</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6196773490349</v>
+        <v>258.974245585757</v>
       </c>
       <c r="F3" t="n">
-        <v>21.08511937591988</v>
+        <v>258.974245585757</v>
       </c>
       <c r="G3" t="n">
-        <v>21.08511937591988</v>
+        <v>121.5767824459004</v>
       </c>
       <c r="H3" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591989</v>
       </c>
       <c r="I3" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591989</v>
       </c>
       <c r="J3" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591989</v>
       </c>
       <c r="K3" t="n">
-        <v>95.64621773957504</v>
+        <v>95.64621773957506</v>
       </c>
       <c r="L3" t="n">
-        <v>242.2253570557079</v>
+        <v>242.225357055708</v>
       </c>
       <c r="M3" t="n">
-        <v>432.6331671185513</v>
+        <v>432.6331671185516</v>
       </c>
       <c r="N3" t="n">
-        <v>642.489150253384</v>
+        <v>642.4891502533843</v>
       </c>
       <c r="O3" t="n">
-        <v>812.2465809289098</v>
+        <v>812.2465809289101</v>
       </c>
       <c r="P3" t="n">
-        <v>929.1588188821961</v>
+        <v>1026.022430280454</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.255968795994</v>
       </c>
       <c r="R3" t="n">
-        <v>1035.8718621589</v>
+        <v>1054.255968795994</v>
       </c>
       <c r="S3" t="n">
-        <v>963.307817128773</v>
+        <v>1054.255968795994</v>
       </c>
       <c r="T3" t="n">
-        <v>963.307817128773</v>
+        <v>857.4437598260241</v>
       </c>
       <c r="U3" t="n">
-        <v>963.307817128773</v>
+        <v>857.4437598260241</v>
       </c>
       <c r="V3" t="n">
-        <v>963.307817128773</v>
+        <v>750.5770215482032</v>
       </c>
       <c r="W3" t="n">
-        <v>709.0704604005714</v>
+        <v>750.5770215482032</v>
       </c>
       <c r="X3" t="n">
-        <v>709.0704604005714</v>
+        <v>750.5770215482032</v>
       </c>
       <c r="Y3" t="n">
-        <v>501.3101616356174</v>
+        <v>750.5770215482032</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>488.0510352985556</v>
+        <v>190.0213023038268</v>
       </c>
       <c r="C4" t="n">
-        <v>319.1148523706487</v>
+        <v>21.08511937591989</v>
       </c>
       <c r="D4" t="n">
-        <v>168.998212958313</v>
+        <v>21.08511937591989</v>
       </c>
       <c r="E4" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591989</v>
       </c>
       <c r="F4" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591989</v>
       </c>
       <c r="G4" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591989</v>
       </c>
       <c r="H4" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591989</v>
       </c>
       <c r="I4" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591989</v>
       </c>
       <c r="J4" t="n">
-        <v>21.08511937591988</v>
+        <v>21.08511937591989</v>
       </c>
       <c r="K4" t="n">
         <v>126.3272391953616</v>
       </c>
       <c r="L4" t="n">
-        <v>316.527353573531</v>
+        <v>316.5273535735309</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4558292559561</v>
+        <v>527.455829255956</v>
       </c>
       <c r="N4" t="n">
         <v>738.8035136568304</v>
@@ -4512,28 +4512,28 @@
         <v>1054.255968795994</v>
       </c>
       <c r="R4" t="n">
-        <v>925.4341625632173</v>
+        <v>1054.255968795994</v>
       </c>
       <c r="S4" t="n">
-        <v>925.4341625632173</v>
+        <v>1054.255968795994</v>
       </c>
       <c r="T4" t="n">
-        <v>925.4341625632173</v>
+        <v>1054.255968795994</v>
       </c>
       <c r="U4" t="n">
-        <v>742.7355235044424</v>
+        <v>788.0297140495312</v>
       </c>
       <c r="V4" t="n">
-        <v>488.0510352985556</v>
+        <v>533.3452258436444</v>
       </c>
       <c r="W4" t="n">
-        <v>488.0510352985556</v>
+        <v>410.8138814473569</v>
       </c>
       <c r="X4" t="n">
-        <v>488.0510352985556</v>
+        <v>410.8138814473569</v>
       </c>
       <c r="Y4" t="n">
-        <v>488.0510352985556</v>
+        <v>190.0213023038268</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>522.1002068716687</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="C5" t="n">
-        <v>522.1002068716687</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>41.28849413961871</v>
       </c>
       <c r="G5" t="n">
         <v>21.09711040012049</v>
@@ -4597,22 +4597,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W5" t="n">
-        <v>788.4778634388466</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716687</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>574.0438072739746</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298713</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263951</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290001</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557299</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4670,22 +4670,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X6" t="n">
         <v>1026.232198106091</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>424.4249251342374</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>255.4887422063304</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>105.3721027939947</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
@@ -4767,10 +4767,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>826.8659691080072</v>
+        <v>1052.618461328661</v>
       </c>
       <c r="Y7" t="n">
-        <v>606.0733899644771</v>
+        <v>831.8258821851307</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1785.600156360221</v>
+        <v>1785.600156360222</v>
       </c>
       <c r="C8" t="n">
         <v>1416.63763941981</v>
       </c>
       <c r="D8" t="n">
-        <v>1058.371940813059</v>
+        <v>1058.37194081306</v>
       </c>
       <c r="E8" t="n">
-        <v>672.5836882148151</v>
+        <v>672.5836882148155</v>
       </c>
       <c r="F8" t="n">
-        <v>261.5977834252075</v>
+        <v>261.597783425208</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4849,7 +4849,7 @@
         <v>2562.339328400155</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424343</v>
+        <v>2172.199996424344</v>
       </c>
     </row>
     <row r="9">
@@ -4865,40 +4865,40 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.1760210978775</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C10" t="n">
-        <v>516.2398381699707</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1347.327782578335</v>
+        <v>1437.037321314904</v>
       </c>
       <c r="W10" t="n">
-        <v>1315.606615969665</v>
+        <v>1147.620151277943</v>
       </c>
       <c r="X10" t="n">
-        <v>1087.617065071647</v>
+        <v>919.6306003799259</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.8244859281173</v>
+        <v>698.8380212363958</v>
       </c>
     </row>
     <row r="11">
@@ -5038,7 +5038,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5050,16 +5050,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5120,22 +5120,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5363,16 +5363,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2003.736430771334</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1714.661204115532</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1459.976715909645</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1170.559545872684</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>942.5699949746667</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>721.7774158311365</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5518,10 +5518,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5530,13 +5530,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>526.5658826424041</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5746,43 +5746,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098237</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4194208819168</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695811</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.786198681611</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,43 +5986,43 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>916.2946447138411</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578603</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6192,7 +6192,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6223,31 +6223,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6259,10 +6259,10 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
         <v>3467.980956852888</v>
@@ -6271,7 +6271,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>513.8536007400712</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>513.8536007400712</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>513.8536007400712</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>366.9636532421608</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>199.7675539570408</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797186</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6463,10 +6463,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6554,7 +6554,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327679</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>594.817955904861</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925253</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>366.9636532421608</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6642,31 +6642,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580264</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580264</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603205</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947403</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741516</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704555</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806538</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630077</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6840,16 +6840,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6940,19 +6940,19 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7086,10 +7086,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7156,34 +7156,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7201,16 +7201,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7247,22 +7247,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
         <v>2001.151557821488</v>
@@ -7323,13 +7323,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,19 +7487,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
         <v>2001.151557821488</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,19 +7724,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
         <v>2001.151557821488</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.050829008587403</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.050829008587648</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.60994937518609</v>
+        <v>60.60994937518606</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.123866789362083</v>
+        <v>2.123866789362054</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.84203171541145</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.84203171541152</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515147</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>26.0125967582172</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D19" t="n">
-        <v>107.2784330767828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>114.1584408891657</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>13.30196929556061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,22 +24603,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>35.40333084624567</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>20.61870490125075</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>147.3599015160451</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>41.54258064659096</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>43.04708356698217</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>794439.3219525022</v>
+        <v>794439.3219525021</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>774108.5972856539</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>774108.5972856537</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>774108.5972856538</v>
+        <v>774108.5972856536</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856537</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>774108.5972856536</v>
+        <v>774108.5972856538</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914272</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.4158914271</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="H2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="J2" t="n">
+        <v>645717.2797520048</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520049</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="L2" t="n">
-        <v>645717.2797520049</v>
-      </c>
       <c r="M2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="O2" t="n">
         <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.2797520051</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679693.2761163143</v>
+        <v>679693.2761163146</v>
       </c>
       <c r="C3" t="n">
-        <v>373.9475389941305</v>
+        <v>373.9475389940065</v>
       </c>
       <c r="D3" t="n">
-        <v>391128.3638059434</v>
+        <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,19 +26383,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.60042306972432e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68959.9371749147</v>
+        <v>68959.93717491474</v>
       </c>
       <c r="K3" t="n">
-        <v>38.57632395585818</v>
+        <v>38.57632395579967</v>
       </c>
       <c r="L3" t="n">
-        <v>95382.64613756971</v>
+        <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26435,16 +26435,16 @@
         <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732035</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426732016</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732027</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26453,7 +26453,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732016</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-332736.772766252</v>
       </c>
       <c r="C6" t="n">
-        <v>346657.797749935</v>
+        <v>346657.7977499351</v>
       </c>
       <c r="D6" t="n">
-        <v>38449.27938377534</v>
+        <v>38449.27938377504</v>
       </c>
       <c r="E6" t="n">
-        <v>28644.61662246291</v>
+        <v>28957.25795138438</v>
       </c>
       <c r="F6" t="n">
-        <v>536130.0582470089</v>
+        <v>536442.6995759305</v>
       </c>
       <c r="G6" t="n">
-        <v>536130.0582470092</v>
+        <v>536442.6995759304</v>
       </c>
       <c r="H6" t="n">
-        <v>536130.0582470088</v>
+        <v>536442.6995759304</v>
       </c>
       <c r="I6" t="n">
-        <v>536130.0582470093</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="J6" t="n">
-        <v>467170.1210720942</v>
+        <v>467482.7624010153</v>
       </c>
       <c r="K6" t="n">
-        <v>536091.4819230532</v>
+        <v>536404.1232519745</v>
       </c>
       <c r="L6" t="n">
-        <v>440747.4121094392</v>
+        <v>441060.0534383606</v>
       </c>
       <c r="M6" t="n">
-        <v>403522.7645180821</v>
+        <v>403835.4058470036</v>
       </c>
       <c r="N6" t="n">
-        <v>536130.0582470087</v>
+        <v>536442.6995759304</v>
       </c>
       <c r="O6" t="n">
-        <v>536130.0582470089</v>
+        <v>536442.6995759303</v>
       </c>
       <c r="P6" t="n">
-        <v>536130.0582470089</v>
+        <v>536442.6995759305</v>
       </c>
     </row>
   </sheetData>
@@ -26703,25 +26703,25 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>3.36886840263309e-14</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.250528837155401e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.250528837155401e-14</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726933</v>
+        <v>613.6975324726934</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,10 +26807,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26925,13 +26925,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.6975324726933</v>
+        <v>613.6975324726934</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3574812967849539</v>
+        <v>0.3574812967848402</v>
       </c>
       <c r="D3" t="n">
-        <v>320.0098783480609</v>
+        <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>263.5639921989986</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1498878025075847</v>
+        <v>0.1498878025075214</v>
       </c>
       <c r="D4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.5639921989981</v>
+        <v>263.5639921989984</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025079193</v>
+        <v>0.149887802507692</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,13 +27162,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>263.5639921989986</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1498878025075847</v>
+        <v>0.1498878025075214</v>
       </c>
       <c r="L4" t="n">
-        <v>376.8709520985326</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>163.4222890910536</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.3663778732632</v>
       </c>
       <c r="F2" t="n">
+        <v>143.3120535427128</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>149.2716195574523</v>
-      </c>
       <c r="H2" t="n">
-        <v>314.2083504396427</v>
+        <v>314.2083504396426</v>
       </c>
       <c r="I2" t="n">
         <v>115.3620237587335</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.8004413602293</v>
+        <v>152.8004413602292</v>
       </c>
       <c r="T2" t="n">
         <v>212.2960065554913</v>
@@ -27438,16 +27438,16 @@
         <v>251.1482828471418</v>
       </c>
       <c r="V2" t="n">
-        <v>64.18826627113634</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.1671084794705</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>160.966820068887</v>
+        <v>122.673946457055</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0234885084581</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.48674643928069</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.94827785225807</v>
+        <v>43.94827785225806</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.20026557072379</v>
       </c>
       <c r="S3" t="n">
-        <v>75.32581322191949</v>
+        <v>147.1642178017449</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8440868802706</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8545380905306</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>127.0025162543826</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>122.1699595597227</v>
       </c>
       <c r="J4" t="n">
-        <v>15.11777503404761</v>
+        <v>15.1177750340476</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5335881704491</v>
       </c>
       <c r="S4" t="n">
         <v>204.7303985328714</v>
@@ -27593,19 +27593,19 @@
         <v>223.2171002436558</v>
       </c>
       <c r="U4" t="n">
-        <v>105.3870129965851</v>
+        <v>22.69467346577363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>165.2169673842665</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>142.1140765027779</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>118.2164900707556</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>392.8447047436068</v>
       </c>
       <c r="H5" t="n">
         <v>314.193632629268</v>
@@ -27669,7 +27669,7 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27681,7 +27681,7 @@
         <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>195.5884214778211</v>
+        <v>177.4358965225434</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>63.00172017663371</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>223.4949672984469</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>203.3002158843216</v>
+        <v>269.0101285567916</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28025,10 +28025,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,13 +28067,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>54.72293255183041</v>
       </c>
       <c r="W10" t="n">
-        <v>255.1190433940077</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>5.844418180573881e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29280,7 +29280,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29714,7 +29714,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.796617681797508e-12</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
     </row>
     <row r="39">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.467125758684192</v>
+        <v>2.467125758684193</v>
       </c>
       <c r="H2" t="n">
-        <v>25.26645167612449</v>
+        <v>25.2664516761245</v>
       </c>
       <c r="I2" t="n">
-        <v>95.11386581167241</v>
+        <v>95.11386581167244</v>
       </c>
       <c r="J2" t="n">
         <v>209.3942148611227</v>
       </c>
       <c r="K2" t="n">
-        <v>313.8276482262246</v>
+        <v>313.8276482262247</v>
       </c>
       <c r="L2" t="n">
-        <v>389.330948163556</v>
+        <v>389.3309481635561</v>
       </c>
       <c r="M2" t="n">
-        <v>433.205695874556</v>
+        <v>433.2056958745561</v>
       </c>
       <c r="N2" t="n">
-        <v>440.2154169364175</v>
+        <v>440.2154169364176</v>
       </c>
       <c r="O2" t="n">
-        <v>415.6829351735015</v>
+        <v>415.6829351735016</v>
       </c>
       <c r="P2" t="n">
         <v>354.7757680059855</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.4218267731077</v>
+        <v>266.4218267731078</v>
       </c>
       <c r="R2" t="n">
-        <v>154.975588438946</v>
+        <v>154.9755884389461</v>
       </c>
       <c r="S2" t="n">
-        <v>56.21962822601609</v>
+        <v>56.2196282260161</v>
       </c>
       <c r="T2" t="n">
         <v>10.79984300864006</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1973700606947353</v>
+        <v>0.1973700606947354</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31123,28 +31123,28 @@
         <v>1.320028654752586</v>
       </c>
       <c r="H3" t="n">
-        <v>12.74869779721576</v>
+        <v>12.74869779721577</v>
       </c>
       <c r="I3" t="n">
-        <v>45.44835499915701</v>
+        <v>45.44835499915702</v>
       </c>
       <c r="J3" t="n">
         <v>124.7137598773046</v>
       </c>
       <c r="K3" t="n">
-        <v>213.1556797457278</v>
+        <v>213.1556797457279</v>
       </c>
       <c r="L3" t="n">
-        <v>286.6141164628366</v>
+        <v>286.6141164628367</v>
       </c>
       <c r="M3" t="n">
-        <v>334.4651551976178</v>
+        <v>334.4651551976179</v>
       </c>
       <c r="N3" t="n">
-        <v>343.3174526235683</v>
+        <v>343.3174526235684</v>
       </c>
       <c r="O3" t="n">
-        <v>314.0683966419452</v>
+        <v>314.0683966419453</v>
       </c>
       <c r="P3" t="n">
         <v>252.0675770641144</v>
@@ -31153,16 +31153,16 @@
         <v>168.500499859295</v>
       </c>
       <c r="R3" t="n">
-        <v>81.95756858191933</v>
+        <v>81.95756858191935</v>
       </c>
       <c r="S3" t="n">
         <v>24.51895330209297</v>
       </c>
       <c r="T3" t="n">
-        <v>5.32064181455099</v>
+        <v>5.320641814550991</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08684399044424909</v>
+        <v>0.08684399044424911</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,28 +31199,28 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.106667681508135</v>
+        <v>1.106667681508136</v>
       </c>
       <c r="H4" t="n">
-        <v>9.839281750135974</v>
+        <v>9.839281750135976</v>
       </c>
       <c r="I4" t="n">
-        <v>33.28051536753557</v>
+        <v>33.28051536753558</v>
       </c>
       <c r="J4" t="n">
-        <v>78.24140508262516</v>
+        <v>78.24140508262518</v>
       </c>
       <c r="K4" t="n">
         <v>128.5746633606724</v>
       </c>
       <c r="L4" t="n">
-        <v>164.5313023944004</v>
+        <v>164.5313023944005</v>
       </c>
       <c r="M4" t="n">
         <v>173.4751893840434</v>
       </c>
       <c r="N4" t="n">
-        <v>169.3503371166041</v>
+        <v>169.3503371166042</v>
       </c>
       <c r="O4" t="n">
         <v>156.4224464735318</v>
@@ -31229,7 +31229,7 @@
         <v>133.8464257707657</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.66832740337668</v>
+        <v>92.66832740337671</v>
       </c>
       <c r="R4" t="n">
         <v>49.75980320672033</v>
@@ -31238,7 +31238,7 @@
         <v>19.28619950410086</v>
       </c>
       <c r="T4" t="n">
-        <v>4.728489184625668</v>
+        <v>4.728489184625669</v>
       </c>
       <c r="U4" t="n">
         <v>0.06036369171862564</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31849,16 +31849,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32083,19 +32083,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33982,10 +33982,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34219,10 +34219,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,10 +34456,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.34831033443638</v>
+        <v>29.39913934302381</v>
       </c>
       <c r="K2" t="n">
-        <v>93.73779718124405</v>
+        <v>93.7377971812441</v>
       </c>
       <c r="L2" t="n">
         <v>153.5645331935688</v>
@@ -34710,16 +34710,16 @@
         <v>202.8594626472833</v>
       </c>
       <c r="N2" t="n">
-        <v>210.8023533398266</v>
+        <v>210.8023533398267</v>
       </c>
       <c r="O2" t="n">
-        <v>185.5847237518148</v>
+        <v>185.5847237518149</v>
       </c>
       <c r="P2" t="n">
-        <v>123.5427722507159</v>
+        <v>123.542772250716</v>
       </c>
       <c r="Q2" t="n">
-        <v>45.1669659072459</v>
+        <v>44.11613689865831</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.31424077136884</v>
+        <v>75.31424077136887</v>
       </c>
       <c r="L3" t="n">
         <v>148.0597366829625</v>
       </c>
       <c r="M3" t="n">
-        <v>192.3311212755995</v>
+        <v>192.3311212755996</v>
       </c>
       <c r="N3" t="n">
-        <v>211.975740540235</v>
+        <v>211.9757405402351</v>
       </c>
       <c r="O3" t="n">
-        <v>171.4721521975008</v>
+        <v>171.4721521975009</v>
       </c>
       <c r="P3" t="n">
-        <v>118.0931696497841</v>
+        <v>215.9352013651956</v>
       </c>
       <c r="Q3" t="n">
-        <v>126.360757488685</v>
+        <v>28.5187257732735</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34868,7 +34868,7 @@
         <v>213.059066345884</v>
       </c>
       <c r="N4" t="n">
-        <v>213.4825094958327</v>
+        <v>213.4825094958328</v>
       </c>
       <c r="O4" t="n">
         <v>181.0075743875715</v>
@@ -34877,7 +34877,7 @@
         <v>131.1249850356592</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.506284151682294</v>
+        <v>6.506284151682323</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
         <v>148.2266905659562</v>
@@ -35032,7 +35032,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250133</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649638</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750469</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>27.13475084531533</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35497,16 +35497,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902961</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36849,7 +36849,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572999021</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37630,10 +37630,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37867,10 +37867,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,10 +38104,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
